--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="1211">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -3497,6 +3497,156 @@
   </si>
   <si>
     <t>320018594742</t>
+  </si>
+  <si>
+    <t>320018608054</t>
+  </si>
+  <si>
+    <t>320018608065</t>
+  </si>
+  <si>
+    <t>320018608293</t>
+  </si>
+  <si>
+    <t>320018608319</t>
+  </si>
+  <si>
+    <t>320018608352</t>
+  </si>
+  <si>
+    <t>320018608374</t>
+  </si>
+  <si>
+    <t>320018608400</t>
+  </si>
+  <si>
+    <t>320018608422</t>
+  </si>
+  <si>
+    <t>320018608455</t>
+  </si>
+  <si>
+    <t>320018608477</t>
+  </si>
+  <si>
+    <t>320018608514</t>
+  </si>
+  <si>
+    <t>320018608536</t>
+  </si>
+  <si>
+    <t>320018608569</t>
+  </si>
+  <si>
+    <t>320018608580</t>
+  </si>
+  <si>
+    <t>320018608617</t>
+  </si>
+  <si>
+    <t>320018608639</t>
+  </si>
+  <si>
+    <t>320018608672</t>
+  </si>
+  <si>
+    <t>320018608694</t>
+  </si>
+  <si>
+    <t>320018608720</t>
+  </si>
+  <si>
+    <t>320018608742</t>
+  </si>
+  <si>
+    <t>320018608775</t>
+  </si>
+  <si>
+    <t>320018608801</t>
+  </si>
+  <si>
+    <t>320018608812</t>
+  </si>
+  <si>
+    <t>320018608823</t>
+  </si>
+  <si>
+    <t>320018608834</t>
+  </si>
+  <si>
+    <t>320018612013</t>
+  </si>
+  <si>
+    <t>320018612024</t>
+  </si>
+  <si>
+    <t>320018612057</t>
+  </si>
+  <si>
+    <t>320018612079</t>
+  </si>
+  <si>
+    <t>320018612116</t>
+  </si>
+  <si>
+    <t>320018612138</t>
+  </si>
+  <si>
+    <t>320018612160</t>
+  </si>
+  <si>
+    <t>320018612182</t>
+  </si>
+  <si>
+    <t>320018612219</t>
+  </si>
+  <si>
+    <t>320018612230</t>
+  </si>
+  <si>
+    <t>320018612274</t>
+  </si>
+  <si>
+    <t>320018612296</t>
+  </si>
+  <si>
+    <t>320018612322</t>
+  </si>
+  <si>
+    <t>320018612344</t>
+  </si>
+  <si>
+    <t>320018612377</t>
+  </si>
+  <si>
+    <t>320018612399</t>
+  </si>
+  <si>
+    <t>320018612436</t>
+  </si>
+  <si>
+    <t>320018612458</t>
+  </si>
+  <si>
+    <t>320018612480</t>
+  </si>
+  <si>
+    <t>320018612506</t>
+  </si>
+  <si>
+    <t>320018612539</t>
+  </si>
+  <si>
+    <t>320018612540</t>
+  </si>
+  <si>
+    <t>320018612550</t>
+  </si>
+  <si>
+    <t>320018612561</t>
+  </si>
+  <si>
+    <t>320018612572</t>
   </si>
 </sst>
 </file>
@@ -3938,7 +4088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:R26"/>
@@ -4064,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1136</v>
+        <v>1186</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -4117,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1137</v>
+        <v>1187</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -4170,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1138</v>
+        <v>1188</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -4223,7 +4373,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1139</v>
+        <v>1189</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -4276,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1140</v>
+        <v>1190</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -4329,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1141</v>
+        <v>1191</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -4382,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1142</v>
+        <v>1192</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -4435,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1143</v>
+        <v>1193</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -4488,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -4541,7 +4691,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1145</v>
+        <v>1195</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -4594,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1146</v>
+        <v>1196</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -4647,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1147</v>
+        <v>1197</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -4700,7 +4850,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1148</v>
+        <v>1198</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -4753,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1149</v>
+        <v>1199</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -4806,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -4859,7 +5009,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1151</v>
+        <v>1201</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -4912,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1152</v>
+        <v>1202</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -4965,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1153</v>
+        <v>1203</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -5018,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1154</v>
+        <v>1204</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -5071,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1155</v>
+        <v>1205</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -5124,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1156</v>
+        <v>1206</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -5177,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1157</v>
+        <v>1207</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -5230,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1158</v>
+        <v>1208</v>
       </c>
       <c r="Q24" t="s">
         <v>93</v>
@@ -5283,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1159</v>
+        <v>1209</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -5336,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1160</v>
+        <v>1210</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="1266">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -3647,6 +3647,171 @@
   </si>
   <si>
     <t>320018612572</t>
+  </si>
+  <si>
+    <t>320018614760</t>
+  </si>
+  <si>
+    <t>320018614770</t>
+  </si>
+  <si>
+    <t>320018614807</t>
+  </si>
+  <si>
+    <t>320018614829</t>
+  </si>
+  <si>
+    <t>320018614862</t>
+  </si>
+  <si>
+    <t>320018614884</t>
+  </si>
+  <si>
+    <t>320018614910</t>
+  </si>
+  <si>
+    <t>320018614932</t>
+  </si>
+  <si>
+    <t>320018614965</t>
+  </si>
+  <si>
+    <t>320018614987</t>
+  </si>
+  <si>
+    <t>320018615023</t>
+  </si>
+  <si>
+    <t>320018615045</t>
+  </si>
+  <si>
+    <t>320018615078</t>
+  </si>
+  <si>
+    <t>320018615090</t>
+  </si>
+  <si>
+    <t>320018615126</t>
+  </si>
+  <si>
+    <t>320018615148</t>
+  </si>
+  <si>
+    <t>320018615181</t>
+  </si>
+  <si>
+    <t>320018615207</t>
+  </si>
+  <si>
+    <t>320018615230</t>
+  </si>
+  <si>
+    <t>320018615251</t>
+  </si>
+  <si>
+    <t>320018615321</t>
+  </si>
+  <si>
+    <t>320018615332</t>
+  </si>
+  <si>
+    <t>320018615343</t>
+  </si>
+  <si>
+    <t>320018615354</t>
+  </si>
+  <si>
+    <t>320018615365</t>
+  </si>
+  <si>
+    <t>320018616270</t>
+  </si>
+  <si>
+    <t>320018616280</t>
+  </si>
+  <si>
+    <t>320018616317</t>
+  </si>
+  <si>
+    <t>320018616339</t>
+  </si>
+  <si>
+    <t>320018616372</t>
+  </si>
+  <si>
+    <t>320018616394</t>
+  </si>
+  <si>
+    <t>320018616420</t>
+  </si>
+  <si>
+    <t>320018616442</t>
+  </si>
+  <si>
+    <t>320018616475</t>
+  </si>
+  <si>
+    <t>320018616497</t>
+  </si>
+  <si>
+    <t>320018616534</t>
+  </si>
+  <si>
+    <t>320018616556</t>
+  </si>
+  <si>
+    <t>320018616589</t>
+  </si>
+  <si>
+    <t>320018616604</t>
+  </si>
+  <si>
+    <t>320018616637</t>
+  </si>
+  <si>
+    <t>320018616659</t>
+  </si>
+  <si>
+    <t>320018616692</t>
+  </si>
+  <si>
+    <t>320018616718</t>
+  </si>
+  <si>
+    <t>320018616740</t>
+  </si>
+  <si>
+    <t>320018616762</t>
+  </si>
+  <si>
+    <t>$276.24</t>
+  </si>
+  <si>
+    <t>320018616795</t>
+  </si>
+  <si>
+    <t>$489.85</t>
+  </si>
+  <si>
+    <t>320018616800</t>
+  </si>
+  <si>
+    <t>$354.26</t>
+  </si>
+  <si>
+    <t>320018616810</t>
+  </si>
+  <si>
+    <t>$132.19</t>
+  </si>
+  <si>
+    <t>320018616821</t>
+  </si>
+  <si>
+    <t>$1,382.91</t>
+  </si>
+  <si>
+    <t>320018616832</t>
   </si>
 </sst>
 </file>
@@ -4214,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1186</v>
+        <v>1236</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -4267,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1187</v>
+        <v>1237</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -4320,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1188</v>
+        <v>1238</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -4373,7 +4538,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1189</v>
+        <v>1239</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -4426,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1190</v>
+        <v>1240</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -4479,7 +4644,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1191</v>
+        <v>1241</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -4532,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1192</v>
+        <v>1242</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -4585,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1193</v>
+        <v>1243</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -4638,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1194</v>
+        <v>1244</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -4691,7 +4856,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1195</v>
+        <v>1245</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -4744,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1196</v>
+        <v>1246</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -4797,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1197</v>
+        <v>1247</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -4850,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1198</v>
+        <v>1248</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -4903,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1199</v>
+        <v>1249</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -4956,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -5009,7 +5174,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1201</v>
+        <v>1251</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -5062,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1202</v>
+        <v>1252</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -5115,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1203</v>
+        <v>1253</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -5168,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1204</v>
+        <v>1254</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -5221,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1205</v>
+        <v>1255</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -5274,13 +5439,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1206</v>
+        <v>1257</v>
       </c>
       <c r="Q22" t="s">
-        <v>89</v>
+        <v>1256</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -5327,13 +5492,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1207</v>
+        <v>1259</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>1258</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -5380,13 +5545,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1208</v>
+        <v>1261</v>
       </c>
       <c r="Q24" t="s">
-        <v>93</v>
+        <v>1260</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S24" s="3"/>
     </row>
@@ -5433,13 +5598,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1209</v>
+        <v>1263</v>
       </c>
       <c r="Q25" t="s">
-        <v>71</v>
+        <v>1262</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S25" s="3"/>
     </row>
@@ -5486,13 +5651,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1210</v>
+        <v>1265</v>
       </c>
       <c r="Q26" t="s">
-        <v>96</v>
+        <v>1264</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S26" s="3"/>
     </row>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="1377">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -3812,6 +3812,339 @@
   </si>
   <si>
     <t>320018616832</t>
+  </si>
+  <si>
+    <t>320018625068</t>
+  </si>
+  <si>
+    <t>320018627152</t>
+  </si>
+  <si>
+    <t>320018627163</t>
+  </si>
+  <si>
+    <t>320018627196</t>
+  </si>
+  <si>
+    <t>320018627211</t>
+  </si>
+  <si>
+    <t>320018627255</t>
+  </si>
+  <si>
+    <t>320018627277</t>
+  </si>
+  <si>
+    <t>320018627303</t>
+  </si>
+  <si>
+    <t>320018627325</t>
+  </si>
+  <si>
+    <t>320018627358</t>
+  </si>
+  <si>
+    <t>320018627370</t>
+  </si>
+  <si>
+    <t>320018627417</t>
+  </si>
+  <si>
+    <t>320018627439</t>
+  </si>
+  <si>
+    <t>320018627461</t>
+  </si>
+  <si>
+    <t>320018627483</t>
+  </si>
+  <si>
+    <t>320018627510</t>
+  </si>
+  <si>
+    <t>320018627531</t>
+  </si>
+  <si>
+    <t>320018627575</t>
+  </si>
+  <si>
+    <t>320018627597</t>
+  </si>
+  <si>
+    <t>320018627623</t>
+  </si>
+  <si>
+    <t>320018627645</t>
+  </si>
+  <si>
+    <t>320018627678</t>
+  </si>
+  <si>
+    <t>320018627689</t>
+  </si>
+  <si>
+    <t>320018627690</t>
+  </si>
+  <si>
+    <t>320018627704</t>
+  </si>
+  <si>
+    <t>320018627715</t>
+  </si>
+  <si>
+    <t>320018628652</t>
+  </si>
+  <si>
+    <t>320018628696</t>
+  </si>
+  <si>
+    <t>320018628755</t>
+  </si>
+  <si>
+    <t>320018628777</t>
+  </si>
+  <si>
+    <t>320018628803</t>
+  </si>
+  <si>
+    <t>320018628858</t>
+  </si>
+  <si>
+    <t>320018628917</t>
+  </si>
+  <si>
+    <t>320018628939</t>
+  </si>
+  <si>
+    <t>320018628961</t>
+  </si>
+  <si>
+    <t>320018628983</t>
+  </si>
+  <si>
+    <t>320018629019</t>
+  </si>
+  <si>
+    <t>320018629030</t>
+  </si>
+  <si>
+    <t>320018629074</t>
+  </si>
+  <si>
+    <t>320018629096</t>
+  </si>
+  <si>
+    <t>320018629122</t>
+  </si>
+  <si>
+    <t>320018629144</t>
+  </si>
+  <si>
+    <t>320018629177</t>
+  </si>
+  <si>
+    <t>320018629188</t>
+  </si>
+  <si>
+    <t>320018629199</t>
+  </si>
+  <si>
+    <t>320018629203</t>
+  </si>
+  <si>
+    <t>320018629214</t>
+  </si>
+  <si>
+    <t>320018641400</t>
+  </si>
+  <si>
+    <t>320018641410</t>
+  </si>
+  <si>
+    <t>320018641443</t>
+  </si>
+  <si>
+    <t>320018641465</t>
+  </si>
+  <si>
+    <t>320018641502</t>
+  </si>
+  <si>
+    <t>320018641524</t>
+  </si>
+  <si>
+    <t>320018641557</t>
+  </si>
+  <si>
+    <t>320018641671</t>
+  </si>
+  <si>
+    <t>320018641708</t>
+  </si>
+  <si>
+    <t>320018641720</t>
+  </si>
+  <si>
+    <t>320018641763</t>
+  </si>
+  <si>
+    <t>320018641785</t>
+  </si>
+  <si>
+    <t>320018641811</t>
+  </si>
+  <si>
+    <t>320018641833</t>
+  </si>
+  <si>
+    <t>320018641866</t>
+  </si>
+  <si>
+    <t>320018641888</t>
+  </si>
+  <si>
+    <t>320018641925</t>
+  </si>
+  <si>
+    <t>320018641947</t>
+  </si>
+  <si>
+    <t>320018641970</t>
+  </si>
+  <si>
+    <t>320018641991</t>
+  </si>
+  <si>
+    <t>320018642027</t>
+  </si>
+  <si>
+    <t>320018642038</t>
+  </si>
+  <si>
+    <t>320018642049</t>
+  </si>
+  <si>
+    <t>320018642050</t>
+  </si>
+  <si>
+    <t>320018642060</t>
+  </si>
+  <si>
+    <t>320018645471</t>
+  </si>
+  <si>
+    <t>320018645482</t>
+  </si>
+  <si>
+    <t>320018645519</t>
+  </si>
+  <si>
+    <t>320018645530</t>
+  </si>
+  <si>
+    <t>320018645574</t>
+  </si>
+  <si>
+    <t>320018645596</t>
+  </si>
+  <si>
+    <t>320018645622</t>
+  </si>
+  <si>
+    <t>320018645644</t>
+  </si>
+  <si>
+    <t>320018645677</t>
+  </si>
+  <si>
+    <t>320018645699</t>
+  </si>
+  <si>
+    <t>320018645736</t>
+  </si>
+  <si>
+    <t>320018645758</t>
+  </si>
+  <si>
+    <t>320018645780</t>
+  </si>
+  <si>
+    <t>320018645806</t>
+  </si>
+  <si>
+    <t>320018645839</t>
+  </si>
+  <si>
+    <t>320018645850</t>
+  </si>
+  <si>
+    <t>320018645894</t>
+  </si>
+  <si>
+    <t>320018645910</t>
+  </si>
+  <si>
+    <t>320018645942</t>
+  </si>
+  <si>
+    <t>320018645964</t>
+  </si>
+  <si>
+    <t>320018645997</t>
+  </si>
+  <si>
+    <t>320018646000</t>
+  </si>
+  <si>
+    <t>320018646011</t>
+  </si>
+  <si>
+    <t>320018646022</t>
+  </si>
+  <si>
+    <t>320018646033</t>
+  </si>
+  <si>
+    <t>320018655634</t>
+  </si>
+  <si>
+    <t>320018655645</t>
+  </si>
+  <si>
+    <t>320018655678</t>
+  </si>
+  <si>
+    <t>320018655690</t>
+  </si>
+  <si>
+    <t>320018655760</t>
+  </si>
+  <si>
+    <t>320018655781</t>
+  </si>
+  <si>
+    <t>320018655818</t>
+  </si>
+  <si>
+    <t>320018655830</t>
+  </si>
+  <si>
+    <t>320018655862</t>
+  </si>
+  <si>
+    <t>320018655884</t>
+  </si>
+  <si>
+    <t>320018655921</t>
+  </si>
+  <si>
+    <t>320018655943</t>
+  </si>
+  <si>
+    <t>320018655976</t>
+  </si>
+  <si>
+    <t>320018655998</t>
   </si>
 </sst>
 </file>
@@ -4379,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1236</v>
+        <v>1363</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -4432,7 +4765,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1237</v>
+        <v>1364</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -4485,13 +4818,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1238</v>
+        <v>1365</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>938</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -4538,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1239</v>
+        <v>1366</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -4591,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1240</v>
+        <v>1367</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -4644,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1241</v>
+        <v>1368</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -4697,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1242</v>
+        <v>1369</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -4750,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1243</v>
+        <v>1370</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -4803,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1244</v>
+        <v>1371</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -4856,7 +5189,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1245</v>
+        <v>1372</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -4909,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1246</v>
+        <v>1373</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -4962,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1247</v>
+        <v>1374</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -5015,7 +5348,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1248</v>
+        <v>1375</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -5068,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1249</v>
+        <v>1376</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -5121,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1250</v>
+        <v>1352</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -5174,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1251</v>
+        <v>1353</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -5227,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1252</v>
+        <v>1354</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -5280,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1253</v>
+        <v>1355</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -5333,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1254</v>
+        <v>1356</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -5386,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1255</v>
+        <v>1357</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -5439,13 +5772,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1257</v>
+        <v>1358</v>
       </c>
       <c r="Q22" t="s">
-        <v>1256</v>
+        <v>89</v>
       </c>
       <c r="R22" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S22" s="3"/>
     </row>
@@ -5492,13 +5825,13 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1259</v>
+        <v>1359</v>
       </c>
       <c r="Q23" t="s">
-        <v>1258</v>
+        <v>91</v>
       </c>
       <c r="R23" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S23" s="3"/>
     </row>
@@ -5545,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1261</v>
+        <v>1360</v>
       </c>
       <c r="Q24" t="s">
-        <v>1260</v>
+        <v>136</v>
       </c>
       <c r="R24" t="s">
         <v>137</v>
@@ -5598,13 +5931,13 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1263</v>
+        <v>1361</v>
       </c>
       <c r="Q25" t="s">
-        <v>1262</v>
+        <v>71</v>
       </c>
       <c r="R25" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S25" s="3"/>
     </row>
@@ -5651,13 +5984,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1265</v>
+        <v>1362</v>
       </c>
       <c r="Q26" t="s">
-        <v>1264</v>
+        <v>96</v>
       </c>
       <c r="R26" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S26" s="3"/>
     </row>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="1418">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -4145,6 +4145,129 @@
   </si>
   <si>
     <t>320018655998</t>
+  </si>
+  <si>
+    <t>320018656300</t>
+  </si>
+  <si>
+    <t>320018656310</t>
+  </si>
+  <si>
+    <t>320018656343</t>
+  </si>
+  <si>
+    <t>320018657913</t>
+  </si>
+  <si>
+    <t>320018657957</t>
+  </si>
+  <si>
+    <t>320018657979</t>
+  </si>
+  <si>
+    <t>320018658004</t>
+  </si>
+  <si>
+    <t>320018658026</t>
+  </si>
+  <si>
+    <t>320018658059</t>
+  </si>
+  <si>
+    <t>320018658070</t>
+  </si>
+  <si>
+    <t>320018658129</t>
+  </si>
+  <si>
+    <t>320018658140</t>
+  </si>
+  <si>
+    <t>320018658173</t>
+  </si>
+  <si>
+    <t>320018658195</t>
+  </si>
+  <si>
+    <t>320018658221</t>
+  </si>
+  <si>
+    <t>320018658243</t>
+  </si>
+  <si>
+    <t>320018675544</t>
+  </si>
+  <si>
+    <t>320018675783</t>
+  </si>
+  <si>
+    <t>320018675794</t>
+  </si>
+  <si>
+    <t>320018675820</t>
+  </si>
+  <si>
+    <t>320018675842</t>
+  </si>
+  <si>
+    <t>320018675886</t>
+  </si>
+  <si>
+    <t>320018675901</t>
+  </si>
+  <si>
+    <t>320018675934</t>
+  </si>
+  <si>
+    <t>320018675956</t>
+  </si>
+  <si>
+    <t>320018675989</t>
+  </si>
+  <si>
+    <t>320018676025</t>
+  </si>
+  <si>
+    <t>320018676069</t>
+  </si>
+  <si>
+    <t>320018676080</t>
+  </si>
+  <si>
+    <t>320018676117</t>
+  </si>
+  <si>
+    <t>320018676139</t>
+  </si>
+  <si>
+    <t>320018676161</t>
+  </si>
+  <si>
+    <t>320018676183</t>
+  </si>
+  <si>
+    <t>320018677775</t>
+  </si>
+  <si>
+    <t>320018677797</t>
+  </si>
+  <si>
+    <t>320018677948</t>
+  </si>
+  <si>
+    <t>320018677992</t>
+  </si>
+  <si>
+    <t>320018678028</t>
+  </si>
+  <si>
+    <t>320018678039</t>
+  </si>
+  <si>
+    <t>320018678040</t>
+  </si>
+  <si>
+    <t>320018678061</t>
   </si>
 </sst>
 </file>
@@ -4712,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1363</v>
+        <v>1394</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -4765,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1364</v>
+        <v>1395</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -4818,13 +4941,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1365</v>
+        <v>1396</v>
       </c>
       <c r="Q4" t="s">
-        <v>938</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -4871,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1366</v>
+        <v>1397</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -4924,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1367</v>
+        <v>1398</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -4977,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1368</v>
+        <v>1399</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -5030,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1369</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -5083,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1370</v>
+        <v>1401</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -5136,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1371</v>
+        <v>1402</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -5189,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1372</v>
+        <v>1403</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -5242,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1373</v>
+        <v>1404</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -5295,7 +5418,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1374</v>
+        <v>1405</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -5348,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1375</v>
+        <v>1406</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -5401,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1376</v>
+        <v>1407</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -5454,7 +5577,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1352</v>
+        <v>1408</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -5507,7 +5630,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1353</v>
+        <v>1409</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -5560,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1354</v>
+        <v>1410</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -5613,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1355</v>
+        <v>1411</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -5666,7 +5789,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1356</v>
+        <v>1412</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -5719,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1357</v>
+        <v>1413</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -5772,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1358</v>
+        <v>1414</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -5825,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1359</v>
+        <v>1415</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -5878,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1360</v>
+        <v>1416</v>
       </c>
       <c r="Q24" t="s">
         <v>136</v>
@@ -5931,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1361</v>
+        <v>1417</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4803" uniqueCount="1430">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -4268,6 +4268,42 @@
   </si>
   <si>
     <t>320018678061</t>
+  </si>
+  <si>
+    <t>320018680212</t>
+  </si>
+  <si>
+    <t>320018680223</t>
+  </si>
+  <si>
+    <t>320018680256</t>
+  </si>
+  <si>
+    <t>320018680315</t>
+  </si>
+  <si>
+    <t>320018680337</t>
+  </si>
+  <si>
+    <t>320018680418</t>
+  </si>
+  <si>
+    <t>320018680430</t>
+  </si>
+  <si>
+    <t>320018680473</t>
+  </si>
+  <si>
+    <t>320018680495</t>
+  </si>
+  <si>
+    <t>320018680521</t>
+  </si>
+  <si>
+    <t>320018680543</t>
+  </si>
+  <si>
+    <t>320018680576</t>
   </si>
 </sst>
 </file>
@@ -4835,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1394</v>
+        <v>1418</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -4888,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1395</v>
+        <v>1419</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -4941,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1396</v>
+        <v>1420</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -4994,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1397</v>
+        <v>531</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -5047,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1398</v>
+        <v>1421</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -5100,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -5153,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1400</v>
+        <v>535</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -5206,7 +5242,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1401</v>
+        <v>537</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -5259,7 +5295,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1402</v>
+        <v>1423</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -5312,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1403</v>
+        <v>1424</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -5365,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -5418,7 +5454,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -5471,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1406</v>
+        <v>1427</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -5524,7 +5560,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1407</v>
+        <v>1428</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -5577,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1408</v>
+        <v>1429</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4803" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="1490">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -4304,6 +4304,186 @@
   </si>
   <si>
     <t>320018680576</t>
+  </si>
+  <si>
+    <t>320018680598</t>
+  </si>
+  <si>
+    <t>320018680635</t>
+  </si>
+  <si>
+    <t>320018680657</t>
+  </si>
+  <si>
+    <t>320018680680</t>
+  </si>
+  <si>
+    <t>320018680705</t>
+  </si>
+  <si>
+    <t>320018680738</t>
+  </si>
+  <si>
+    <t>320018680749</t>
+  </si>
+  <si>
+    <t>320018680760</t>
+  </si>
+  <si>
+    <t>320018680771</t>
+  </si>
+  <si>
+    <t>320018680782</t>
+  </si>
+  <si>
+    <t>320018688912</t>
+  </si>
+  <si>
+    <t>320018688923</t>
+  </si>
+  <si>
+    <t>320018688956</t>
+  </si>
+  <si>
+    <t>320018689025</t>
+  </si>
+  <si>
+    <t>320018689117</t>
+  </si>
+  <si>
+    <t>320018689139</t>
+  </si>
+  <si>
+    <t>320018689161</t>
+  </si>
+  <si>
+    <t>320018689183</t>
+  </si>
+  <si>
+    <t>320018689210</t>
+  </si>
+  <si>
+    <t>320018689231</t>
+  </si>
+  <si>
+    <t>320018689275</t>
+  </si>
+  <si>
+    <t>320018689297</t>
+  </si>
+  <si>
+    <t>320018689323</t>
+  </si>
+  <si>
+    <t>320018689356</t>
+  </si>
+  <si>
+    <t>320018689389</t>
+  </si>
+  <si>
+    <t>320018689404</t>
+  </si>
+  <si>
+    <t>320018689459</t>
+  </si>
+  <si>
+    <t>320018689470</t>
+  </si>
+  <si>
+    <t>320018689507</t>
+  </si>
+  <si>
+    <t>320018689529</t>
+  </si>
+  <si>
+    <t>320018689551</t>
+  </si>
+  <si>
+    <t>320018691643</t>
+  </si>
+  <si>
+    <t>320018691654</t>
+  </si>
+  <si>
+    <t>320018691665</t>
+  </si>
+  <si>
+    <t>320018691676</t>
+  </si>
+  <si>
+    <t>320018696900</t>
+  </si>
+  <si>
+    <t>320018696910</t>
+  </si>
+  <si>
+    <t>320018696965</t>
+  </si>
+  <si>
+    <t>320018696987</t>
+  </si>
+  <si>
+    <t>320018697023</t>
+  </si>
+  <si>
+    <t>320018697045</t>
+  </si>
+  <si>
+    <t>320018697078</t>
+  </si>
+  <si>
+    <t>320018697090</t>
+  </si>
+  <si>
+    <t>320018697126</t>
+  </si>
+  <si>
+    <t>320018697148</t>
+  </si>
+  <si>
+    <t>320018697218</t>
+  </si>
+  <si>
+    <t>320018697240</t>
+  </si>
+  <si>
+    <t>320018697354</t>
+  </si>
+  <si>
+    <t>320018697457</t>
+  </si>
+  <si>
+    <t>320018697480</t>
+  </si>
+  <si>
+    <t>320018697505</t>
+  </si>
+  <si>
+    <t>320018697571</t>
+  </si>
+  <si>
+    <t>320018697593</t>
+  </si>
+  <si>
+    <t>320018697630</t>
+  </si>
+  <si>
+    <t>320018697652</t>
+  </si>
+  <si>
+    <t>320018697685</t>
+  </si>
+  <si>
+    <t>320018697696</t>
+  </si>
+  <si>
+    <t>320018697700</t>
+  </si>
+  <si>
+    <t>320018697711</t>
+  </si>
+  <si>
+    <t>320018697744</t>
   </si>
 </sst>
 </file>
@@ -4871,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1418</v>
+        <v>1465</v>
       </c>
       <c r="Q2" t="s">
         <v>53</v>
@@ -4924,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1419</v>
+        <v>1466</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
@@ -4977,7 +5157,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1420</v>
+        <v>1467</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
@@ -5030,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>531</v>
+        <v>1468</v>
       </c>
       <c r="Q5" t="s">
         <v>60</v>
@@ -5083,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1421</v>
+        <v>1469</v>
       </c>
       <c r="Q6" t="s">
         <v>62</v>
@@ -5136,7 +5316,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1422</v>
+        <v>1470</v>
       </c>
       <c r="Q7" t="s">
         <v>52</v>
@@ -5189,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>535</v>
+        <v>1471</v>
       </c>
       <c r="Q8" t="s">
         <v>53</v>
@@ -5242,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>537</v>
+        <v>1472</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -5295,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1423</v>
+        <v>1473</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
@@ -5348,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1424</v>
+        <v>1474</v>
       </c>
       <c r="Q11" t="s">
         <v>69</v>
@@ -5401,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1425</v>
+        <v>1475</v>
       </c>
       <c r="Q12" t="s">
         <v>71</v>
@@ -5454,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1426</v>
+        <v>1476</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
@@ -5507,7 +5687,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1427</v>
+        <v>1477</v>
       </c>
       <c r="Q14" t="s">
         <v>75</v>
@@ -5560,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1428</v>
+        <v>1478</v>
       </c>
       <c r="Q15" t="s">
         <v>77</v>
@@ -5613,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1429</v>
+        <v>1479</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -5666,7 +5846,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1409</v>
+        <v>1480</v>
       </c>
       <c r="Q17" t="s">
         <v>80</v>
@@ -5719,7 +5899,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1410</v>
+        <v>1481</v>
       </c>
       <c r="Q18" t="s">
         <v>60</v>
@@ -5772,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1411</v>
+        <v>1482</v>
       </c>
       <c r="Q19" t="s">
         <v>83</v>
@@ -5825,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1412</v>
+        <v>1483</v>
       </c>
       <c r="Q20" t="s">
         <v>85</v>
@@ -5878,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1413</v>
+        <v>1484</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -5931,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1414</v>
+        <v>1485</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -5984,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1415</v>
+        <v>1486</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -6037,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1416</v>
+        <v>1487</v>
       </c>
       <c r="Q24" t="s">
         <v>136</v>
@@ -6090,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1417</v>
+        <v>1488</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -6143,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1362</v>
+        <v>1489</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="1532">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -4484,6 +4484,132 @@
   </si>
   <si>
     <t>320018697744</t>
+  </si>
+  <si>
+    <t>$20.36</t>
+  </si>
+  <si>
+    <t>$29.35</t>
+  </si>
+  <si>
+    <t>$33.84</t>
+  </si>
+  <si>
+    <t>$46.27</t>
+  </si>
+  <si>
+    <t>$60.01</t>
+  </si>
+  <si>
+    <t>$236.37</t>
+  </si>
+  <si>
+    <t>$62.66</t>
+  </si>
+  <si>
+    <t>$24.85</t>
+  </si>
+  <si>
+    <t>$43.09</t>
+  </si>
+  <si>
+    <t>$56.58</t>
+  </si>
+  <si>
+    <t>320018701475</t>
+  </si>
+  <si>
+    <t>320018701497</t>
+  </si>
+  <si>
+    <t>320018701523</t>
+  </si>
+  <si>
+    <t>320018701545</t>
+  </si>
+  <si>
+    <t>320018701589</t>
+  </si>
+  <si>
+    <t>320018701604</t>
+  </si>
+  <si>
+    <t>320018701648</t>
+  </si>
+  <si>
+    <t>320018702081</t>
+  </si>
+  <si>
+    <t>320018702130</t>
+  </si>
+  <si>
+    <t>320018702162</t>
+  </si>
+  <si>
+    <t>320018702210</t>
+  </si>
+  <si>
+    <t>$15.86</t>
+  </si>
+  <si>
+    <t>320018702232</t>
+  </si>
+  <si>
+    <t>$19.30</t>
+  </si>
+  <si>
+    <t>320018702265</t>
+  </si>
+  <si>
+    <t>$22.74</t>
+  </si>
+  <si>
+    <t>320018702287</t>
+  </si>
+  <si>
+    <t>320018702324</t>
+  </si>
+  <si>
+    <t>$45.21</t>
+  </si>
+  <si>
+    <t>320018702368</t>
+  </si>
+  <si>
+    <t>320018702405</t>
+  </si>
+  <si>
+    <t>$57.63</t>
+  </si>
+  <si>
+    <t>320018702427</t>
+  </si>
+  <si>
+    <t>$66.89</t>
+  </si>
+  <si>
+    <t>320018702450</t>
+  </si>
+  <si>
+    <t>$118.70</t>
+  </si>
+  <si>
+    <t>320018702471</t>
+  </si>
+  <si>
+    <t>320018702508</t>
+  </si>
+  <si>
+    <t>320018702519</t>
+  </si>
+  <si>
+    <t>320018702541</t>
+  </si>
+  <si>
+    <t>320018702563</t>
+  </si>
+  <si>
+    <t>320018702574</t>
   </si>
 </sst>
 </file>
@@ -5051,13 +5177,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1465</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>1490</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -5104,13 +5230,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1466</v>
+        <v>1501</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>1491</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S3" s="3"/>
     </row>
@@ -5157,13 +5283,13 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1467</v>
+        <v>1502</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>1492</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S4" s="3"/>
     </row>
@@ -5210,13 +5336,13 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1468</v>
+        <v>1503</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>1493</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S5" s="3"/>
     </row>
@@ -5263,13 +5389,13 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1469</v>
+        <v>1504</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>1494</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S6" s="3"/>
     </row>
@@ -5316,13 +5442,13 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1470</v>
+        <v>1505</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>1495</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -5369,13 +5495,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1471</v>
+        <v>1506</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>1490</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -5422,13 +5548,13 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1472</v>
+        <v>1507</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>1497</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -5475,13 +5601,13 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1473</v>
+        <v>1508</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>1491</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S10" s="3"/>
     </row>
@@ -5528,13 +5654,13 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1474</v>
+        <v>1509</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>1498</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S11" s="3"/>
     </row>
@@ -5581,13 +5707,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1475</v>
+        <v>1510</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>1499</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S12" s="3"/>
     </row>
@@ -5634,13 +5760,13 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1476</v>
+        <v>1512</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>1511</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S13" s="3"/>
     </row>
@@ -5687,13 +5813,13 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1477</v>
+        <v>1514</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>1513</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S14" s="3"/>
     </row>
@@ -5740,13 +5866,13 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1478</v>
+        <v>1516</v>
       </c>
       <c r="Q15" t="s">
-        <v>77</v>
+        <v>1515</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S15" s="3"/>
     </row>
@@ -5793,13 +5919,13 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1479</v>
+        <v>1517</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>1492</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S16" s="3"/>
     </row>
@@ -5846,13 +5972,13 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1480</v>
+        <v>1519</v>
       </c>
       <c r="Q17" t="s">
-        <v>80</v>
+        <v>1518</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S17" s="3"/>
     </row>
@@ -5899,13 +6025,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1481</v>
+        <v>1520</v>
       </c>
       <c r="Q18" t="s">
-        <v>60</v>
+        <v>1493</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S18" s="3"/>
     </row>
@@ -5952,13 +6078,13 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1482</v>
+        <v>1522</v>
       </c>
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>1521</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S19" s="3"/>
     </row>
@@ -6005,13 +6131,13 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1483</v>
+        <v>1524</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>1523</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S20" s="3"/>
     </row>
@@ -6058,13 +6184,13 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1484</v>
+        <v>1526</v>
       </c>
       <c r="Q21" t="s">
-        <v>87</v>
+        <v>1525</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="S21" s="3"/>
     </row>
@@ -6111,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1485</v>
+        <v>1527</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -6164,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1486</v>
+        <v>1528</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -6217,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1487</v>
+        <v>1529</v>
       </c>
       <c r="Q24" t="s">
         <v>136</v>
@@ -6270,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1488</v>
+        <v>1530</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -6323,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1489</v>
+        <v>1531</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5203" uniqueCount="1557">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -4610,6 +4610,81 @@
   </si>
   <si>
     <t>320018702574</t>
+  </si>
+  <si>
+    <t>320018714339</t>
+  </si>
+  <si>
+    <t>320018714340</t>
+  </si>
+  <si>
+    <t>320018714372</t>
+  </si>
+  <si>
+    <t>320018714394</t>
+  </si>
+  <si>
+    <t>320018714431</t>
+  </si>
+  <si>
+    <t>320018714453</t>
+  </si>
+  <si>
+    <t>320018714486</t>
+  </si>
+  <si>
+    <t>320018714501</t>
+  </si>
+  <si>
+    <t>320018714534</t>
+  </si>
+  <si>
+    <t>320018714556</t>
+  </si>
+  <si>
+    <t>320018714590</t>
+  </si>
+  <si>
+    <t>320018714615</t>
+  </si>
+  <si>
+    <t>320018714648</t>
+  </si>
+  <si>
+    <t>320018714660</t>
+  </si>
+  <si>
+    <t>320018714692</t>
+  </si>
+  <si>
+    <t>320018714718</t>
+  </si>
+  <si>
+    <t>320018714751</t>
+  </si>
+  <si>
+    <t>320018714773</t>
+  </si>
+  <si>
+    <t>320018714800</t>
+  </si>
+  <si>
+    <t>320018714821</t>
+  </si>
+  <si>
+    <t>320018714854</t>
+  </si>
+  <si>
+    <t>320018714865</t>
+  </si>
+  <si>
+    <t>320018714876</t>
+  </si>
+  <si>
+    <t>320018714887</t>
+  </si>
+  <si>
+    <t>320018714898</t>
   </si>
 </sst>
 </file>
@@ -5177,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1500</v>
+        <v>1532</v>
       </c>
       <c r="Q2" t="s">
         <v>1490</v>
@@ -5230,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>1501</v>
+        <v>1533</v>
       </c>
       <c r="Q3" t="s">
         <v>1491</v>
@@ -5283,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>1502</v>
+        <v>1534</v>
       </c>
       <c r="Q4" t="s">
         <v>1492</v>
@@ -5336,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>1503</v>
+        <v>1535</v>
       </c>
       <c r="Q5" t="s">
         <v>1493</v>
@@ -5389,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>1504</v>
+        <v>1536</v>
       </c>
       <c r="Q6" t="s">
         <v>1494</v>
@@ -5442,7 +5517,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>1505</v>
+        <v>1537</v>
       </c>
       <c r="Q7" t="s">
         <v>1495</v>
@@ -5495,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>1506</v>
+        <v>1538</v>
       </c>
       <c r="Q8" t="s">
         <v>1490</v>
@@ -5548,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>1507</v>
+        <v>1539</v>
       </c>
       <c r="Q9" t="s">
         <v>1497</v>
@@ -5601,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>1508</v>
+        <v>1540</v>
       </c>
       <c r="Q10" t="s">
         <v>1491</v>
@@ -5654,7 +5729,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>1509</v>
+        <v>1541</v>
       </c>
       <c r="Q11" t="s">
         <v>1498</v>
@@ -5707,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>1510</v>
+        <v>1542</v>
       </c>
       <c r="Q12" t="s">
         <v>1499</v>
@@ -5760,7 +5835,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>1512</v>
+        <v>1543</v>
       </c>
       <c r="Q13" t="s">
         <v>1511</v>
@@ -5813,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>1514</v>
+        <v>1544</v>
       </c>
       <c r="Q14" t="s">
         <v>1513</v>
@@ -5866,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>1516</v>
+        <v>1545</v>
       </c>
       <c r="Q15" t="s">
         <v>1515</v>
@@ -5919,7 +5994,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>1517</v>
+        <v>1546</v>
       </c>
       <c r="Q16" t="s">
         <v>1492</v>
@@ -5972,7 +6047,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>1519</v>
+        <v>1547</v>
       </c>
       <c r="Q17" t="s">
         <v>1518</v>
@@ -6025,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>1520</v>
+        <v>1548</v>
       </c>
       <c r="Q18" t="s">
         <v>1493</v>
@@ -6078,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>1522</v>
+        <v>1549</v>
       </c>
       <c r="Q19" t="s">
         <v>1521</v>
@@ -6131,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>1524</v>
+        <v>1550</v>
       </c>
       <c r="Q20" t="s">
         <v>1523</v>
@@ -6184,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>1526</v>
+        <v>1551</v>
       </c>
       <c r="Q21" t="s">
         <v>1525</v>
@@ -6237,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>1527</v>
+        <v>1552</v>
       </c>
       <c r="Q22" t="s">
         <v>89</v>
@@ -6290,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>1528</v>
+        <v>1553</v>
       </c>
       <c r="Q23" t="s">
         <v>91</v>
@@ -6343,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>1529</v>
+        <v>1554</v>
       </c>
       <c r="Q24" t="s">
         <v>136</v>
@@ -6396,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>1530</v>
+        <v>1555</v>
       </c>
       <c r="Q25" t="s">
         <v>71</v>
@@ -6449,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>1531</v>
+        <v>1556</v>
       </c>
       <c r="Q26" t="s">
         <v>96</v>
